--- a/orion-ops-service/src/main/resources/templates/machine-import-template.xlsx
+++ b/orion-ops-service/src/main/resources/templates/machine-import-template.xlsx
@@ -7,19 +7,19 @@
     <workbookView windowWidth="22568" windowHeight="9583"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="机器信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">机器信息!$A$2:$I$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>机器信息导出</t>
+    <t>机器信息模板</t>
   </si>
   <si>
     <t>机器名称</t>
@@ -34,16 +34,25 @@
     <t>ssh 端口</t>
   </si>
   <si>
+    <t>认证方式</t>
+  </si>
+  <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>导出密码 (密文)</t>
+    <t>导出密码</t>
   </si>
   <si>
-    <t>导入密码 (明文)</t>
+    <t>导入密码</t>
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
 </sst>
 </file>
@@ -51,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -67,98 +76,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,21 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -204,14 +176,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -226,6 +190,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -242,61 +251,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,121 +401,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,45 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,13 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +507,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -541,118 +550,130 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,25 +682,13 @@
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -691,12 +700,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1018,22 +1027,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="30.7155963302752" customWidth="1"/>
-    <col min="2" max="2" width="25.7155963302752" customWidth="1"/>
-    <col min="3" max="3" width="30.7155963302752" customWidth="1"/>
+    <col min="1" max="3" width="20.7155963302752" customWidth="1"/>
     <col min="4" max="4" width="10.7155963302752" customWidth="1"/>
-    <col min="5" max="7" width="20.7155963302752" customWidth="1"/>
-    <col min="8" max="8" width="25.7155963302752" customWidth="1"/>
+    <col min="5" max="5" width="13.7155963302752" customWidth="1"/>
+    <col min="6" max="6" width="20.7155963302752" customWidth="1"/>
+    <col min="7" max="7" width="16.7155963302752" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7155963302752" customWidth="1"/>
+    <col min="9" max="9" width="25.7155963302752" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -1041,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
+    <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1051,29 +1061,54 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2">
+  <autoFilter ref="A2:I3">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="E3">
+      <formula1>"密码,秘钥"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
